--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionRequest\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355CED2C-FB9F-4CB2-B90D-1CFADC87CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="9510" yWindow="880" windowWidth="24900" windowHeight="17010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -33,186 +43,402 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
+  </si>
+  <si>
+    <t>so we consider VOCs to be a separately-regulated pollutant whenever NOx/NO2 is separately-regulated.</t>
+  </si>
+  <si>
+    <t>BC, OC</t>
+  </si>
+  <si>
+    <t>As these are subsets of PM10 and sometimes PM2.5, we consider them to be separately-regulated whenever</t>
+  </si>
+  <si>
+    <t>PM is separately-regulated.</t>
+  </si>
+  <si>
+    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
+  </si>
+  <si>
+    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>F-gases</t>
+  </si>
+  <si>
+    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
+  </si>
+  <si>
+    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
+  </si>
+  <si>
+    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
+  </si>
+  <si>
+    <t>economy.</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
+  </si>
+  <si>
+    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
+  </si>
+  <si>
+    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
+  </si>
+  <si>
+    <t>"separate regulations" for purposes of this variable.</t>
+  </si>
+  <si>
+    <t>Where SOx is not regulated directly, it may still be regulated via the allowable sulfur content of diesel fuels.</t>
+  </si>
+  <si>
+    <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
+  </si>
+  <si>
+    <t>LDVs</t>
+  </si>
+  <si>
+    <t>HDVs</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>ships</t>
+  </si>
+  <si>
+    <t>motorbikes</t>
+  </si>
+  <si>
+    <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>Ministry of Environment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.me.go.kr/mamo/web/index.do?menuId=10007</t>
+  </si>
+  <si>
+    <t>VOCs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>On-Road Vehicles</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>U.S. EPA</t>
   </si>
   <si>
+    <t>undated (current as of 2018)</t>
+  </si>
+  <si>
+    <t>NAAQS Table</t>
+  </si>
+  <si>
     <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
   </si>
   <si>
-    <t>NAAQS Table</t>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Regulations for Emissions from Aircraft</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
   </si>
   <si>
     <t>Ships</t>
   </si>
   <si>
-    <t>undated (current as of 2018)</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Aircraft</t>
-  </si>
-  <si>
-    <t>Rail</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Locomotives</t>
-  </si>
-  <si>
-    <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
-  </si>
-  <si>
-    <t>so we consider VOCs to be a separately-regulated pollutant whenever NOx/NO2 is separately-regulated.</t>
-  </si>
-  <si>
-    <t>VOCs</t>
-  </si>
-  <si>
-    <t>BC, OC</t>
-  </si>
-  <si>
-    <t>As these are subsets of PM10 and sometimes PM2.5, we consider them to be separately-regulated whenever</t>
-  </si>
-  <si>
-    <t>PM is separately-regulated.</t>
-  </si>
-  <si>
-    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
-  </si>
-  <si>
-    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>PM2.5</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>F-gases</t>
-  </si>
-  <si>
-    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
-  </si>
-  <si>
-    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
-  </si>
-  <si>
-    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
-  </si>
-  <si>
-    <t>economy.</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>SOx</t>
-  </si>
-  <si>
-    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
-  </si>
-  <si>
-    <t>U.S. EPA / Electronic Code of Federal Regulations</t>
-  </si>
-  <si>
-    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
-  </si>
-  <si>
-    <t>§1033.101 Exhaust emission standards, Table 1</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/cgi-bin/text-idx?SID=159ba6f126272ea1995c71a43b7af309&amp;mc=true&amp;node=pt40.36.1033&amp;rgn=div5#se40.36.1033_1101</t>
+    <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
   </si>
   <si>
     <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
   </si>
   <si>
-    <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
-  </si>
-  <si>
     <t>Page 3, the three paragraphs under the "New Clean Air Act Standards for Category 3 Engines" subheader</t>
   </si>
   <si>
-    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
-  </si>
-  <si>
-    <t>"separate regulations" for purposes of this variable.</t>
-  </si>
-  <si>
-    <t>Where SOx is not regulated directly, it may still be regulated via the allowable sulfur content of diesel fuels.</t>
-  </si>
-  <si>
-    <t>For example, diesel fuel in the U.S. used by non-road modes must be ultra-low sulfur diesel (ULSD, below 15 ppm).</t>
-  </si>
-  <si>
-    <t>(See https://www.epa.gov/diesel-fuel-standards/diesel-fuel-standards-and-rulemakings )</t>
-  </si>
-  <si>
-    <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
-  </si>
-  <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
-    <t>(Boolean)</t>
+    <t>U.S. Data Sources</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Data Sources</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.motie.go.kr/motie/ne/presse/press2/bbs/bbsView.do?bbs_seq_n=162268&amp;bbs_cd_n=81&amp;currentPage=11&amp;search_key_n=title_v&amp;cate_n=&amp;dept_v=&amp;search_val_v=</t>
+  </si>
+  <si>
+    <t>MOTIE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rail - CO/NOx/CH4/PM10/PM2.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10 &amp; PM2.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.me.go.kr/home/web/board/read.do;jsessionid=odAnLihWXgLFp999YpaQ8BVs.mehome1?pagerOffset=30&amp;maxPageItems=10&amp;maxIndexPages=10&amp;searchKey=&amp;searchValue=&amp;menuId=286&amp;orgCd=&amp;boardId=1007845&amp;boardMasterId=1&amp;boardCategoryId=&amp;decorator=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aircraft &amp; Ship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page 47</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.easylaw.go.kr/CSP/CnpClsMain.laf?csmSeq=1454&amp;ccfNo=1&amp;cciNo=1&amp;cnpClsNo=1</t>
+  </si>
+  <si>
+    <t>Korean law</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-Road Vehicles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(See </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.mof.go.kr/article/view.do?articleKey=28313&amp;boardKey=10&amp;menuKey=971&amp;currentPageNo=1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motorbikes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSAE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ksae.org/func/download_journal.php?path=L2hvbWUvdmlydHVhbC9rc2FlL2h0ZG9jcy91cGxvYWQvam91cm5hbC9BYnN0cmFjdF8xNTY1Nzg5MDc2XzIzMjEucGRm&amp;filename=S1NBRUFKXzIwMTUzNzA4XzM4LTQwLnBkZg==&amp;bsid=7591</t>
+  </si>
+  <si>
+    <t>The New Emission Standard of Domestic Motorcycle Regulations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOx for On-Road Vehicles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOx : NO &amp; NO2 (질소산화물 in Korean)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2O is not belonged to NOx (아산화질소 in Korean)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOCs (탄화수소 in Korean)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(See Page 47 at </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.motie.go.kr/motie/ne/presse/press2/bbs/bbsView.do?bbs_seq_n=162268&amp;bbs_cd_n=81&amp;currentPage=11&amp;search_key_n=title_v&amp;cate_n=&amp;dept_v=&amp;search_val_v=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regulations for Gas Emissions from Cars</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(See </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.me.go.kr/home/web/board/read.do;jsessionid=odAnLihWXgLFp999YpaQ8BVs.mehome1?pagerOffset=30&amp;maxPageItems=10&amp;maxIndexPages=10&amp;searchKey=&amp;searchValue=&amp;menuId=286&amp;orgCd=&amp;boardId=1007845&amp;boardMasterId=1&amp;boardCategoryId=&amp;decorator=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attachment 1) Comprehensive fine dust management plan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regulated substances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diesel rail vehicle emission standards</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Korea, PM10 and PM2.5 are commonly called as "fine dust"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>If PM2.5 is regulated, the regulation on PM10 will follow, so it is assumed that the regulation on PM2.5 includes PM10 regulation.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Rail, there is a 'Particulate matter' regulation including PM2.5 emission management.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For example, in Korea, the SOx content of fuel oil is regulated in the notification of the sulfur oxide emission control area.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sox is not included in the 'vehicle emissions standards' in South Korea.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For LDVs and HDVs, we assumed 1 for Sox based on the South Korea-US FTA rule. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Motorbikes, as there is no rules for SOx, we assumed 0.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This variable follows EPS values as it need to fulfil the international regulations. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +446,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,12 +454,60 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +517,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -268,10 +554,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,325 +852,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B18" s="3">
+        <v>2009</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="F24" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E42" s="9"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>35</v>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F3:P3"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A58:B58"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{999CC982-872D-4808-AF8C-7C2946D27FAB}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{6637727A-8EBB-4066-A9B7-E59FE20CAA66}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{1FF41683-5636-42D0-8919-D01D53D6E364}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{B9C35FE1-D43D-4A45-976E-376FFCA3B3FD}"/>
+    <hyperlink ref="F26" r:id="rId5" xr:uid="{2E2CDD05-8772-4F98-B5E6-49B566D019BD}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{7D900D21-43D5-4909-B659-6ECB6E47D961}"/>
+    <hyperlink ref="A41" r:id="rId7" display="(see http://www.me.go.kr/home/web/board/read.do;jsessionid=odAnLihWXgLFp999YpaQ8BVs.mehome1?pagerOffset=30&amp;maxPageItems=10&amp;maxIndexPages=10&amp;searchKey=&amp;searchValue=&amp;menuId=286&amp;orgCd=&amp;boardId=1007845&amp;boardMasterId=1&amp;boardCategoryId=&amp;decorator=)" xr:uid="{087EBDC9-87D7-439E-9F14-7B222933DFB7}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{82E8DECF-0A62-45CE-A746-05E77FD7AA7F}"/>
+    <hyperlink ref="A50" r:id="rId9" xr:uid="{18080E1F-4460-4F07-BD10-4E3D5637F40E}"/>
+    <hyperlink ref="F32" r:id="rId10" xr:uid="{AB8E3210-C467-43EA-9934-7CB2664EC9B9}"/>
+    <hyperlink ref="A58" r:id="rId11" xr:uid="{B7FE10D3-62E6-4A3D-8F03-6F0364A8811F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -907,7 +1522,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -948,7 +1563,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -989,7 +1604,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1019,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1030,7 +1645,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1071,7 +1686,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1092,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1111,6 +1726,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>